--- a/12. APP  Anti-parasitic/APP_test.xlsx
+++ b/12. APP  Anti-parasitic/APP_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/UniDL4BioPep-main/12. APP  Anti-parasitic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4EF15D8-6394-E149-9898-CD0B3C13CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF76BD3-E51D-6840-894A-AEA4F3553BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="2320" windowWidth="28040" windowHeight="16940" xr2:uid="{BC452A54-61CB-544A-994B-2C7C7B01D988}"/>
+    <workbookView xWindow="3940" yWindow="7320" windowWidth="28040" windowHeight="16940" xr2:uid="{BC452A54-61CB-544A-994B-2C7C7B01D988}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -372,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -412,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -518,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -660,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,7 +671,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B8" sqref="A1:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>31</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -801,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -857,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -865,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -881,7 +881,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -889,7 +889,7 @@
         <v>15</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -897,7 +897,7 @@
         <v>39</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
         <v>43</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>42</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -961,7 +961,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -969,7 +969,7 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>30</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1001,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,7 +1025,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>27</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,7 +1041,7 @@
         <v>33</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>78</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1073,7 +1073,7 @@
         <v>57</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
         <v>68</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1097,7 +1097,7 @@
         <v>71</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>75</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
         <v>52</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1129,7 +1129,7 @@
         <v>79</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1153,7 +1153,7 @@
         <v>49</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
         <v>80</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>84</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1193,7 +1193,7 @@
         <v>74</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>86</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1209,7 +1209,7 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1217,7 +1217,7 @@
         <v>87</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1225,7 +1225,7 @@
         <v>89</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1233,7 +1233,7 @@
         <v>85</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
         <v>54</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>56</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
         <v>51</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1273,7 +1273,7 @@
         <v>83</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>70</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
         <v>59</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1297,7 +1297,7 @@
         <v>53</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>90</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>88</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1329,7 +1329,7 @@
         <v>93</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1337,7 +1337,7 @@
         <v>48</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1345,7 +1345,7 @@
         <v>67</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1353,7 +1353,7 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1361,7 +1361,7 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>63</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
         <v>73</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1385,7 +1385,7 @@
         <v>72</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>77</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1401,7 +1401,7 @@
         <v>65</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
         <v>81</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1417,7 +1417,7 @@
         <v>66</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
